--- a/RandomMIDI3/rules.xlsx
+++ b/RandomMIDI3/rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palti\Desktop\RandomMIDI2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palti\Desktop\RandomMIDI3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA1C35D-24FB-4601-B0FD-FF0CF010218C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B08C5C-73B7-4CC3-AC17-7096F13C5EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="-110" windowWidth="18330" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,66 +163,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>scaleFluctuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTempo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endWordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>scaleFluctuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wordCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTempo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endWordCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeatCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeatChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
@@ -667,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -704,34 +704,34 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -754,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -796,10 +796,10 @@
         <v>21</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>27</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
@@ -914,10 +914,10 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>27</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -1066,18 +1066,18 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>

--- a/RandomMIDI3/rules.xlsx
+++ b/RandomMIDI3/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palti\Desktop\RandomMIDI3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paltis/Documents/RandomMIDI/RandomMIDI3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B08C5C-73B7-4CC3-AC17-7096F13C5EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD247EB-0C05-534B-8993-AD52684D1A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="-110" windowWidth="18330" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t>scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,16 +580,16 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="20.3984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,13 +604,13 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -622,7 +618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -631,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -642,13 +638,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -656,26 +652,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -699,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>48</v>
@@ -746,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -769,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
@@ -805,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -843,7 +839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -876,7 +872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -911,7 +907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>48</v>
@@ -932,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -955,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>26</v>
@@ -967,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -981,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -999,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
@@ -1040,7 +1036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>45</v>
@@ -1075,7 +1071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
